--- a/excel/kpi-rd-without.xlsx
+++ b/excel/kpi-rd-without.xlsx
@@ -67,7 +67,7 @@
     </r>
   </si>
   <si>
-    <t>业绩95%</t>
+    <t>业绩85%</t>
   </si>
   <si>
     <t>项目进度延时率</t>
